--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il17f-Il17ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il17f-Il17ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Il17f</t>
+  </si>
+  <si>
+    <t>Il17ra</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Il17f</t>
-  </si>
-  <si>
-    <t>Il17ra</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.104867</v>
+        <v>0.1023976666666667</v>
       </c>
       <c r="H2">
-        <v>0.314601</v>
+        <v>0.307193</v>
       </c>
       <c r="I2">
-        <v>0.5326758154773495</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.5326758154773494</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.331285</v>
+        <v>1.021465</v>
       </c>
       <c r="N2">
-        <v>3.993855</v>
+        <v>3.064395</v>
       </c>
       <c r="O2">
-        <v>0.04998946978772829</v>
+        <v>0.03918894356403102</v>
       </c>
       <c r="P2">
-        <v>0.04998946978772829</v>
+        <v>0.03918894356403101</v>
       </c>
       <c r="Q2">
-        <v>0.139607864095</v>
+        <v>0.1045956325816667</v>
       </c>
       <c r="R2">
-        <v>1.256470776855</v>
+        <v>0.941360693235</v>
       </c>
       <c r="S2">
-        <v>0.0266281815844585</v>
+        <v>0.03918894356403102</v>
       </c>
       <c r="T2">
-        <v>0.02662818158445849</v>
+        <v>0.03918894356403101</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.104867</v>
+        <v>0.1023976666666667</v>
       </c>
       <c r="H3">
-        <v>0.314601</v>
+        <v>0.307193</v>
       </c>
       <c r="I3">
-        <v>0.5326758154773495</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5326758154773494</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>31.132924</v>
       </c>
       <c r="O3">
-        <v>0.3896782341125657</v>
+        <v>0.3981426681675393</v>
       </c>
       <c r="P3">
-        <v>0.3896782341125657</v>
+        <v>0.3981426681675393</v>
       </c>
       <c r="Q3">
-        <v>1.088272113702667</v>
+        <v>1.062646258036889</v>
       </c>
       <c r="R3">
-        <v>9.794449023324001</v>
+        <v>9.563816322332</v>
       </c>
       <c r="S3">
-        <v>0.2075721711296845</v>
+        <v>0.3981426681675393</v>
       </c>
       <c r="T3">
-        <v>0.2075721711296845</v>
+        <v>0.3981426681675393</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.104867</v>
+        <v>0.1023976666666667</v>
       </c>
       <c r="H4">
-        <v>0.314601</v>
+        <v>0.307193</v>
       </c>
       <c r="I4">
-        <v>0.5326758154773495</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.5326758154773494</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.369861666666667</v>
+        <v>4.368617666666666</v>
       </c>
       <c r="N4">
-        <v>7.109585</v>
+        <v>13.105853</v>
       </c>
       <c r="O4">
-        <v>0.08898780365355934</v>
+        <v>0.1676038936153748</v>
       </c>
       <c r="P4">
-        <v>0.08898780365355935</v>
+        <v>0.1676038936153748</v>
       </c>
       <c r="Q4">
-        <v>0.2485202833983333</v>
+        <v>0.4473362556254444</v>
       </c>
       <c r="R4">
-        <v>2.236682550585</v>
+        <v>4.026026300629</v>
       </c>
       <c r="S4">
-        <v>0.04740165087869799</v>
+        <v>0.1676038936153748</v>
       </c>
       <c r="T4">
-        <v>0.04740165087869798</v>
+        <v>0.1676038936153748</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.104867</v>
+        <v>0.1023976666666667</v>
       </c>
       <c r="H5">
-        <v>0.314601</v>
+        <v>0.307193</v>
       </c>
       <c r="I5">
-        <v>0.5326758154773495</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.5326758154773494</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.55252066666667</v>
+        <v>10.29740833333333</v>
       </c>
       <c r="N5">
-        <v>37.657562</v>
+        <v>30.892225</v>
       </c>
       <c r="O5">
-        <v>0.4713444924461466</v>
+        <v>0.3950644946530549</v>
       </c>
       <c r="P5">
-        <v>0.4713444924461467</v>
+        <v>0.3950644946530548</v>
       </c>
       <c r="Q5">
-        <v>1.316345184751333</v>
+        <v>1.054430586047222</v>
       </c>
       <c r="R5">
-        <v>11.847106662762</v>
+        <v>9.489875274425</v>
       </c>
       <c r="S5">
-        <v>0.2510738118845086</v>
+        <v>0.3950644946530549</v>
       </c>
       <c r="T5">
-        <v>0.2510738118845086</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.09200133333333332</v>
-      </c>
-      <c r="H6">
-        <v>0.276004</v>
-      </c>
-      <c r="I6">
-        <v>0.4673241845226505</v>
-      </c>
-      <c r="J6">
-        <v>0.4673241845226504</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.331285</v>
-      </c>
-      <c r="N6">
-        <v>3.993855</v>
-      </c>
-      <c r="O6">
-        <v>0.04998946978772829</v>
-      </c>
-      <c r="P6">
-        <v>0.04998946978772829</v>
-      </c>
-      <c r="Q6">
-        <v>0.1224799950466667</v>
-      </c>
-      <c r="R6">
-        <v>1.10231995542</v>
-      </c>
-      <c r="S6">
-        <v>0.0233612882032698</v>
-      </c>
-      <c r="T6">
-        <v>0.02336128820326979</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.09200133333333332</v>
-      </c>
-      <c r="H7">
-        <v>0.276004</v>
-      </c>
-      <c r="I7">
-        <v>0.4673241845226505</v>
-      </c>
-      <c r="J7">
-        <v>0.4673241845226504</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>10.37764133333333</v>
-      </c>
-      <c r="N7">
-        <v>31.132924</v>
-      </c>
-      <c r="O7">
-        <v>0.3896782341125657</v>
-      </c>
-      <c r="P7">
-        <v>0.3896782341125657</v>
-      </c>
-      <c r="Q7">
-        <v>0.9547568395217778</v>
-      </c>
-      <c r="R7">
-        <v>8.592811555696001</v>
-      </c>
-      <c r="S7">
-        <v>0.1821060629828813</v>
-      </c>
-      <c r="T7">
-        <v>0.1821060629828812</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.09200133333333332</v>
-      </c>
-      <c r="H8">
-        <v>0.276004</v>
-      </c>
-      <c r="I8">
-        <v>0.4673241845226505</v>
-      </c>
-      <c r="J8">
-        <v>0.4673241845226504</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>2.369861666666667</v>
-      </c>
-      <c r="N8">
-        <v>7.109585</v>
-      </c>
-      <c r="O8">
-        <v>0.08898780365355934</v>
-      </c>
-      <c r="P8">
-        <v>0.08898780365355935</v>
-      </c>
-      <c r="Q8">
-        <v>0.2180304331488888</v>
-      </c>
-      <c r="R8">
-        <v>1.96227389834</v>
-      </c>
-      <c r="S8">
-        <v>0.04158615277486136</v>
-      </c>
-      <c r="T8">
-        <v>0.04158615277486135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.09200133333333332</v>
-      </c>
-      <c r="H9">
-        <v>0.276004</v>
-      </c>
-      <c r="I9">
-        <v>0.4673241845226505</v>
-      </c>
-      <c r="J9">
-        <v>0.4673241845226504</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>12.55252066666667</v>
-      </c>
-      <c r="N9">
-        <v>37.657562</v>
-      </c>
-      <c r="O9">
-        <v>0.4713444924461466</v>
-      </c>
-      <c r="P9">
-        <v>0.4713444924461467</v>
-      </c>
-      <c r="Q9">
-        <v>1.154848638027555</v>
-      </c>
-      <c r="R9">
-        <v>10.393637742248</v>
-      </c>
-      <c r="S9">
-        <v>0.220270680561638</v>
-      </c>
-      <c r="T9">
-        <v>0.220270680561638</v>
+        <v>0.3950644946530548</v>
       </c>
     </row>
   </sheetData>
